--- a/DataSources/GLDW_DataSources.xlsx
+++ b/DataSources/GLDW_DataSources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="16656" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Source</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>This demonstrates how Total Dissolved Solids data that is manually entered can be validated prior to incorporating the data in the VDAB repository.</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://sources.gldw.org:40412/vdab'&gt;Container&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://sources.gldw.org:40402/vdab'&gt;Container&lt;/a&gt;&lt;hr&gt;&lt;a href='http://sources.gldw.org:40402/vdab/views/enterTDS'&gt;EntryForm&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Luminance</t>
+  </si>
+  <si>
+    <t>This demonstrates reading actual luminosity data using a zwave based sensor</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://sources.gldw.org:40410/vdab'&gt;Container&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,8 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,10 +437,12 @@
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="9" max="9" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,43 +458,73 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataSources/GLDW_DataSources.xlsx
+++ b/DataSources/GLDW_DataSources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="16656" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="16650" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Source</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>&lt;a href='http://sources.gldw.org:40410/vdab'&gt;Container&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>USGSData</t>
+  </si>
+  <si>
+    <t>USGSWaterWatch</t>
+  </si>
+  <si>
+    <t>United States Geologic Survey</t>
+  </si>
+  <si>
+    <t>&lt;a href='https://waterwatch.usgs.gov/'&gt;USGS WaterWatch&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is data  read every 10 minutes from over 500 USGS monitoring stations. The water flow and water levels are read. GLDW Alerts are created for potential flooding conditions. </t>
   </si>
 </sst>
 </file>
@@ -426,23 +444,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="9" max="9" width="42.21875" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +470,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -462,63 +480,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -534,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -546,7 +584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSources/GLDW_DataSources.xlsx
+++ b/DataSources/GLDW_DataSources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Source</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>LakeErieBuoys</t>
-  </si>
-  <si>
     <t>WaterMetrics</t>
   </si>
   <si>
@@ -69,18 +66,6 @@
     <t>&lt;a href='http://sources.gldw.org:40402/vdab'&gt;Container&lt;/a&gt;&lt;hr&gt;&lt;a href='http://sources.gldw.org:40402/vdab/views/enterTDS'&gt;EntryForm&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Luminance</t>
-  </si>
-  <si>
-    <t>This demonstrates reading actual luminosity data using a zwave based sensor</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://sources.gldw.org:40410/vdab'&gt;Container&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -97,6 +82,25 @@
   </si>
   <si>
     <t xml:space="preserve">This is data  read every 10 minutes from over 500 USGS monitoring stations. The water flow and water levels are read. GLDW Alerts are created for potential flooding conditions. </t>
+  </si>
+  <si>
+    <t>SimulatedBuoys</t>
+  </si>
+  <si>
+    <t>NDBCBuoys</t>
+  </si>
+  <si>
+    <t>NDBCData</t>
+  </si>
+  <si>
+    <t>National Data Buoy Center</t>
+  </si>
+  <si>
+    <t>This data is read every 20 minutes from the National Data Buoy Center for a number of buoys in the Great Lakes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href='https://www.ndbc.noaa.gov/'&gt;National Data Buoy Center&lt;/a&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -446,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,87 +481,87 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DataSources/GLDW_DataSources.xlsx
+++ b/DataSources/GLDW_DataSources.xlsx
@@ -42,28 +42,13 @@
     <t>MJA Technology LLC</t>
   </si>
   <si>
-    <t>This is simulated data demonstrating how data from a series of buoys on Lake Erie could be graphed, analyzed and trigger alerts</t>
-  </si>
-  <si>
-    <t>TDSManual</t>
-  </si>
-  <si>
-    <t>TDSData</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>This demonstrates how Total Dissolved Solids data that is manually entered can be validated prior to incorporating the data in the VDAB repository.</t>
-  </si>
-  <si>
     <t>Links</t>
   </si>
   <si>
     <t>&lt;a href='http://sources.gldw.org:40412/vdab'&gt;Container&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://sources.gldw.org:40402/vdab'&gt;Container&lt;/a&gt;&lt;hr&gt;&lt;a href='http://sources.gldw.org:40402/vdab/views/enterTDS'&gt;EntryForm&lt;/a&gt;</t>
   </si>
   <si>
     <t>High</t>
@@ -101,6 +86,21 @@
   <si>
     <t xml:space="preserve">&lt;a href='https://www.ndbc.noaa.gov/'&gt;National Data Buoy Center&lt;/a&gt;
 </t>
+  </si>
+  <si>
+    <t>This is simulated data demonstrating how data from a series of buoys on Lake Erie could be graphed, analyzed and trigger alerts. The NDBC data stream features actual buoy data.</t>
+  </si>
+  <si>
+    <t>SalinityData</t>
+  </si>
+  <si>
+    <t>SalinityProject</t>
+  </si>
+  <si>
+    <t>This demonstrates how specific conductivity data manually entered from a smartphone can be validated prior to incorporating the data in the GLDW  repository.</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://sources.gldw.org:40402/vdab'&gt;Container&lt;/a&gt;&lt;hr&gt;&lt;a href='http://sources.gldw.org:40402/vdab/views/enterSalinity'&gt;EnterData&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,52 +481,52 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
@@ -538,30 +538,30 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DataSources/GLDW_DataSources.xlsx
+++ b/DataSources/GLDW_DataSources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Source</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>WaterMetrics</t>
-  </si>
-  <si>
-    <t>Simulated</t>
-  </si>
-  <si>
     <t>MJA Technology LLC</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Links</t>
   </si>
   <si>
-    <t>&lt;a href='http://sources.gldw.org:40412/vdab'&gt;Container&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">This is data  read every 10 minutes from over 500 USGS monitoring stations. The water flow and water levels are read. GLDW Alerts are created for potential flooding conditions. </t>
-  </si>
-  <si>
-    <t>SimulatedBuoys</t>
   </si>
   <si>
     <t>NDBCBuoys</t>
@@ -88,9 +76,6 @@
 </t>
   </si>
   <si>
-    <t>This is simulated data demonstrating how data from a series of buoys on Lake Erie could be graphed, analyzed and trigger alerts. The NDBC data stream features actual buoy data.</t>
-  </si>
-  <si>
     <t>SalinityData</t>
   </si>
   <si>
@@ -101,6 +86,21 @@
   </si>
   <si>
     <t>&lt;a href='http://sources.gldw.org:40402/vdab'&gt;Container&lt;/a&gt;&lt;hr&gt;&lt;a href='http://sources.gldw.org:40402/vdab/views/enterSalinity'&gt;EnterData&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>WQDataStations</t>
+  </si>
+  <si>
+    <t>HABData</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Multiple Sources</t>
+  </si>
+  <si>
+    <t>This is Lake Erie data from stations that measure Chlorophyll and BlueGreen Algae levels.</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,87 +481,85 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataSources/GLDW_DataSources.xlsx
+++ b/DataSources/GLDW_DataSources.xlsx
@@ -69,9 +69,6 @@
     <t>National Data Buoy Center</t>
   </si>
   <si>
-    <t>This data is read every 20 minutes from the National Data Buoy Center for a number of buoys in the Great Lakes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;a href='https://www.ndbc.noaa.gov/'&gt;National Data Buoy Center&lt;/a&gt;
 </t>
   </si>
@@ -85,9 +82,6 @@
     <t>This demonstrates how specific conductivity data manually entered from a smartphone can be validated prior to incorporating the data in the GLDW  repository.</t>
   </si>
   <si>
-    <t>&lt;a href='http://sources.gldw.org:40402/vdab'&gt;Container&lt;/a&gt;&lt;hr&gt;&lt;a href='http://sources.gldw.org:40402/vdab/views/enterSalinity'&gt;EnterData&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>WQDataStations</t>
   </si>
   <si>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t>This is Lake Erie data from stations that measure Chlorophyll and BlueGreen Algae levels.</t>
+  </si>
+  <si>
+    <t>&lt;a href='http://sources.gldw.org/vdab/views/enterSalinity'&gt;EnterData&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This data is read every 20 minutes from the National Data Buoy Center for a number of buoys in the Great Lakes. High wind gusts are currently alerted.</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
     <col min="9" max="9" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -518,36 +518,36 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
